--- a/QLTS.Tool_Khao_Sat/bin/Debug/Data/FileExcelOutput.xlsx
+++ b/QLTS.Tool_Khao_Sat/bin/Debug/Data/FileExcelOutput.xlsx
@@ -16,49 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>fixed_asset_id</x:t>
+    <x:t>Data</x:t>
   </x:si>
   <x:si>
-    <x:t>fixed_asset_code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fixed_asset_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>voucher_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>voucher_code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>orgprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>depreciation_amount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>depreciation_for_bussiness_amount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accum_depreciation_amount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>remaining_amount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>organization_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3B67A13E-9F56-4A5A-A225-28662E0E5841</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PHOC41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phòng học ( 04 phòng lầu )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A302703A-9188-4CC6-B4AC-0428A2C52629</x:t>
+    <x:t>SELECT fixed_asset_name, fixed_asset_code, fixed_asset_id FROM fixed_asset limit 3 ;</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -409,74 +370,30 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K2"/>
+  <x:dimension ref="A1:A4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:11">
+    <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K1" s="0" t="s">
-        <x:v>10</x:v>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="0" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:11">
-      <x:c r="A2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F2" s="0">
-        <x:v>338196000</x:v>
-      </x:c>
-      <x:c r="G2" s="0">
-        <x:v>243501120</x:v>
-      </x:c>
-      <x:c r="H2" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I2" s="0">
-        <x:v>243501120</x:v>
-      </x:c>
-      <x:c r="J2" s="0">
-        <x:v>94694880</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>14</x:v>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="0" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
